--- a/anjou/배송업무 시간표.xlsx
+++ b/anjou/배송업무 시간표.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51FAA0F4-CE7E-4D61-B9FE-97500C9AC847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693207E-60A4-4115-A40B-1222475D1F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0509BBD5-2C66-4C5E-A833-5D73233AA29A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
   <si>
     <t>08:00 ~ 09:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -99,23 +99,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>미엘약국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀약국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메디홀스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>사무실</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>배송 업무 시간표</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디홀스로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미엘약국으로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙주로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀약국으로</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -594,17 +598,17 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="7" width="11.625" customWidth="1"/>
+    <col min="3" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -666,19 +670,19 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -687,19 +691,19 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -708,19 +712,19 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -729,19 +733,19 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -750,19 +754,19 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -771,19 +775,19 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -792,19 +796,19 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -813,19 +817,19 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -876,19 +880,19 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -897,19 +901,19 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/anjou/배송업무 시간표.xlsx
+++ b/anjou/배송업무 시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693207E-60A4-4115-A40B-1222475D1F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F936AC04-C1B4-48E9-87E5-BA2061EF0DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0509BBD5-2C66-4C5E-A833-5D73233AA29A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0509BBD5-2C66-4C5E-A833-5D73233AA29A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>08:00 ~ 09:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -67,14 +67,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20:00 ~ 21:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:00 ~ 20:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>16:00 ~ 17:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -107,19 +99,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>메디홀스로</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미엘약국으로</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>앙주로</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀약국으로</t>
+    <t>19:00 ~ 20:30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 미엘약국 배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후 하얀약국 배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 하얀약국 배송</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 50</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -239,6 +251,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -251,13 +309,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -268,9 +323,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
@@ -278,6 +330,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -595,329 +674,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08EC137-6279-49FE-A602-8E373E37F689}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="3:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/anjou/배송업무 시간표.xlsx
+++ b/anjou/배송업무 시간표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F936AC04-C1B4-48E9-87E5-BA2061EF0DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF625EC5-DA3E-4CB5-BA1D-A7DD33DE73F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0509BBD5-2C66-4C5E-A833-5D73233AA29A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0509BBD5-2C66-4C5E-A833-5D73233AA29A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>08:00 ~ 09:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -124,14 +124,6 @@
   </si>
   <si>
     <t>저녁 하얀약국 배송</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>500 10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 50</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,36 +318,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08EC137-6279-49FE-A602-8E373E37F689}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -686,27 +684,27 @@
     <col min="3" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
@@ -723,145 +721,139 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -872,7 +864,7 @@
       <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -882,50 +874,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="3:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
